--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lrrc4b-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lrrc4b-Ptprf.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2520896666666667</v>
+        <v>0.05871566666666667</v>
       </c>
       <c r="N2">
-        <v>0.7562690000000001</v>
+        <v>0.176147</v>
       </c>
       <c r="O2">
-        <v>0.03491140780587004</v>
+        <v>0.008355169877275808</v>
       </c>
       <c r="P2">
-        <v>0.03491140780587004</v>
+        <v>0.008355169877275808</v>
       </c>
       <c r="Q2">
-        <v>0.05448338338766667</v>
+        <v>0.01269004088966667</v>
       </c>
       <c r="R2">
-        <v>0.4903504504890001</v>
+        <v>0.114210368007</v>
       </c>
       <c r="S2">
-        <v>0.01792588511618526</v>
+        <v>0.004290111019844772</v>
       </c>
       <c r="T2">
-        <v>0.01792588511618526</v>
+        <v>0.004290111019844772</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>3.938378</v>
       </c>
       <c r="O3">
-        <v>0.1818061039810792</v>
+        <v>0.1868088427899751</v>
       </c>
       <c r="P3">
-        <v>0.1818061039810792</v>
+        <v>0.1868088427899751</v>
       </c>
       <c r="Q3">
         <v>0.2837299406686666</v>
@@ -632,10 +632,10 @@
         <v>2.553569466018</v>
       </c>
       <c r="S3">
-        <v>0.09335158729514426</v>
+        <v>0.0959203327795206</v>
       </c>
       <c r="T3">
-        <v>0.09335158729514426</v>
+        <v>0.0959203327795206</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>16.967871</v>
       </c>
       <c r="O4">
-        <v>0.7832824882130508</v>
+        <v>0.8048359873327491</v>
       </c>
       <c r="P4">
-        <v>0.7832824882130508</v>
+        <v>0.8048359873327491</v>
       </c>
       <c r="Q4">
         <v>1.222405018539</v>
@@ -694,10 +694,10 @@
         <v>11.001645166851</v>
       </c>
       <c r="S4">
-        <v>0.4021903664069946</v>
+        <v>0.4132573950189588</v>
       </c>
       <c r="T4">
-        <v>0.4021903664069946</v>
+        <v>0.4132573950189588</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2520896666666667</v>
+        <v>0.05871566666666667</v>
       </c>
       <c r="N5">
-        <v>0.7562690000000001</v>
+        <v>0.176147</v>
       </c>
       <c r="O5">
-        <v>0.03491140780587004</v>
+        <v>0.008355169877275808</v>
       </c>
       <c r="P5">
-        <v>0.03491140780587004</v>
+        <v>0.008355169877275808</v>
       </c>
       <c r="Q5">
-        <v>0.0516252747768889</v>
+        <v>0.01202434223288889</v>
       </c>
       <c r="R5">
-        <v>0.4646274729920001</v>
+        <v>0.108219080096</v>
       </c>
       <c r="S5">
-        <v>0.01698552268968478</v>
+        <v>0.004065058857431037</v>
       </c>
       <c r="T5">
-        <v>0.01698552268968478</v>
+        <v>0.004065058857431037</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>3.938378</v>
       </c>
       <c r="O6">
-        <v>0.1818061039810792</v>
+        <v>0.1868088427899751</v>
       </c>
       <c r="P6">
-        <v>0.1818061039810792</v>
+        <v>0.1868088427899751</v>
       </c>
       <c r="Q6">
         <v>0.2688459350115556</v>
@@ -818,10 +818,10 @@
         <v>2.419613415104</v>
       </c>
       <c r="S6">
-        <v>0.08845451668593496</v>
+        <v>0.09088851001045453</v>
       </c>
       <c r="T6">
-        <v>0.08845451668593496</v>
+        <v>0.09088851001045453</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>16.967871</v>
       </c>
       <c r="O7">
-        <v>0.7832824882130508</v>
+        <v>0.8048359873327491</v>
       </c>
       <c r="P7">
-        <v>0.7832824882130508</v>
+        <v>0.8048359873327491</v>
       </c>
       <c r="Q7">
         <v>1.158279663392</v>
@@ -880,10 +880,10 @@
         <v>10.424516970528</v>
       </c>
       <c r="S7">
-        <v>0.3810921218060562</v>
+        <v>0.3915785923137903</v>
       </c>
       <c r="T7">
-        <v>0.3810921218060562</v>
+        <v>0.3915785923137903</v>
       </c>
     </row>
   </sheetData>
